--- a/data/trans_bre/P59A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P59A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-27,63%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,65%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-13,32; 4,87</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 14,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; 8,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-67,31; 49,11</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,58; 88,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,3; 67,93</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,35; 5,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 5,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; 3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 8,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,97; 69,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,73; 49,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,2; 43,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,66; 69,7</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,55; 6,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; 2,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 7,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,45; 18,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,02; 95,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,35; 28,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,16; 96,24</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,19%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,22; 6,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 4,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,93; 1,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; 0,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,2; 68,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,31; 25,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,14; 4,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,53; 3,63</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; 9,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,71; 15,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,96; 5,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 8,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,37; 88,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,53; 249,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,94; 124,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; 179,77</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,74%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; 4,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,45; 2,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 4,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 10,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,86; 42,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,31; 47,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,75; 122,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,41; 135,05</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,94%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,88; 0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 7,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; -0,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 5,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,49; 3,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,38; 61,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,11; -0,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,27; 39,5</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,4%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 2,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 4,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,11; 3,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; -3,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,27; 27,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,0; 48,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,41; 22,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,48; -34,6</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; -0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 2,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; -0,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,84; -6,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 15,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; -4,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; -0,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; 12,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 8,46</t>
+          <t>-8,93; 10,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,98; 73,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 67,93</t>
+          <t>-39,54; 92,89</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 8,97</t>
+          <t>-6,54; 9,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 69,7</t>
+          <t>-28,31; 77,61</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>15,0%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 7,7</t>
+          <t>-5,34; 8,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,16; 96,24</t>
+          <t>-40,01; 98,33</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>-13,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,72%</t>
+          <t>-18,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-38,19%</t>
+          <t>-50,56%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 4,77</t>
+          <t>-13,59; 6,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 0,55</t>
+          <t>-27,53; -2,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 25,56</t>
+          <t>-51,13; 39,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 3,63</t>
+          <t>-78,83; -14,97</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 8,81</t>
+          <t>-6,54; 8,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 179,77</t>
+          <t>-49,63; 186,74</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>13,48%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 10,12</t>
+          <t>-5,83; 9,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 135,05</t>
+          <t>-39,08; 127,36</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-2,34%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,09</t>
+          <t>-7,11; 5,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 39,5</t>
+          <t>-34,23; 44,38</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-66,4%</t>
+          <t>-67,02%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -3,28</t>
+          <t>-13,12; -3,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,48; -34,6</t>
+          <t>-82,16; -35,83</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>-17,61%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; -0,08</t>
+          <t>-5,66; 0,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-31,19; -0,56</t>
+          <t>-32,9; 0,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 4,87</t>
+          <t>-13,52; 6,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 12,75</t>
+          <t>-10,73; 12,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 14,58</t>
+          <t>-7,71; 15,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 10,86</t>
+          <t>-9,96; 10,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 49,11</t>
+          <t>-66,38; 63,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 73,91</t>
+          <t>-39,95; 70,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 88,2</t>
+          <t>-25,99; 93,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 92,89</t>
+          <t>-41,13; 79,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 5,2</t>
+          <t>-8,91; 4,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 5,49</t>
+          <t>-8,9; 6,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 3,0</t>
+          <t>-8,6; 3,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 9,69</t>
+          <t>-6,46; 9,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 69,41</t>
+          <t>-58,79; 66,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 49,14</t>
+          <t>-47,44; 52,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 43,54</t>
+          <t>-61,39; 40,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 77,61</t>
+          <t>-27,87; 66,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 1,64</t>
+          <t>-14,85; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 6,57</t>
+          <t>-9,1; 5,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 2,48</t>
+          <t>-14,15; 1,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 8,03</t>
+          <t>-4,95; 7,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 18,41</t>
+          <t>-72,98; 28,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 95,56</t>
+          <t>-63,03; 87,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 28,82</t>
+          <t>-70,39; 24,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 98,33</t>
+          <t>-33,91; 91,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 6,53</t>
+          <t>-9,94; 5,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 6,41</t>
+          <t>-13,32; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 1,05</t>
+          <t>-19,47; 2,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,53; -2,41</t>
+          <t>-27,57; -2,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 68,36</t>
+          <t>-50,84; 54,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 39,56</t>
+          <t>-49,99; 37,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,14; 4,0</t>
+          <t>-47,29; 8,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,83; -14,97</t>
+          <t>-79,53; -16,07</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 9,75</t>
+          <t>-12,09; 9,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 15,31</t>
+          <t>-6,99; 16,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 5,96</t>
+          <t>-12,11; 6,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 8,85</t>
+          <t>-7,13; 8,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,37; 88,03</t>
+          <t>-56,12; 89,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 249,84</t>
+          <t>-43,14; 269,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-78,94; 124,35</t>
+          <t>-77,12; 141,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 186,74</t>
+          <t>-51,94; 168,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 4,94</t>
+          <t>-13,92; 5,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 2,12</t>
+          <t>-16,62; 1,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 4,09</t>
+          <t>-8,23; 4,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 9,41</t>
+          <t>-6,04; 8,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 42,01</t>
+          <t>-62,67; 55,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,31; 47,22</t>
+          <t>-86,53; 46,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,75; 122,46</t>
+          <t>-75,73; 127,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 127,36</t>
+          <t>-41,16; 104,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 0,1</t>
+          <t>-10,79; 0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,95</t>
+          <t>-4,85; 8,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -0,21</t>
+          <t>-11,22; 0,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 5,42</t>
+          <t>-7,16; 5,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 3,33</t>
+          <t>-61,95; 13,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 61,55</t>
+          <t>-23,63; 64,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-53,11; -0,98</t>
+          <t>-51,68; 3,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 44,38</t>
+          <t>-34,1; 45,31</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 2,07</t>
+          <t>-8,18; 1,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 4,55</t>
+          <t>-6,75; 4,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,0</t>
+          <t>-6,93; 3,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -3,51</t>
+          <t>-13,27; -3,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 27,46</t>
+          <t>-62,58; 19,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,0; 48,65</t>
+          <t>-44,26; 52,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 22,69</t>
+          <t>-37,84; 24,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -35,83</t>
+          <t>-82,39; -40,19</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,77</t>
+          <t>-6,06; -0,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,12</t>
+          <t>-3,75; 1,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,69</t>
+          <t>-5,9; -0,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,16</t>
+          <t>-5,74; -0,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -6,04</t>
+          <t>-39,67; -7,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 15,67</t>
+          <t>-21,95; 14,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -4,23</t>
+          <t>-31,18; -4,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 0,96</t>
+          <t>-33,4; -0,59</t>
         </is>
       </c>
     </row>
